--- a/mapping/input_list_AFO.xlsx
+++ b/mapping/input_list_AFO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>input_list_IRI</t>
   </si>
@@ -31,40 +31,70 @@
     <t>no IRI</t>
   </si>
   <si>
-    <t>{'Gas chromatography'}</t>
-  </si>
-  <si>
-    <t>{'Mass spectrometry'}</t>
-  </si>
-  <si>
-    <t>{'Differential scanning calorimetry'}</t>
-  </si>
-  <si>
-    <t>{'Liquid chromatography'}</t>
-  </si>
-  <si>
-    <t>{'Nuclear magnetic resonance spectroscopy'}</t>
-  </si>
-  <si>
-    <t>{'Raman Spectroscopy'}</t>
-  </si>
-  <si>
-    <t>{'Mass flow controller'}</t>
-  </si>
-  <si>
-    <t>{'Flame Ionization Detector'}</t>
-  </si>
-  <si>
-    <t>{'Thermal conductivity detector'}</t>
-  </si>
-  <si>
-    <t>{'Specific surface area'}</t>
-  </si>
-  <si>
-    <t>{'Wavelength'}</t>
-  </si>
-  <si>
-    <t>{'Selectivity'}</t>
+    <t>{'synthesis'}</t>
+  </si>
+  <si>
+    <t>{'specific surface area'}</t>
+  </si>
+  <si>
+    <t>{'Raman spectroscopy'}</t>
+  </si>
+  <si>
+    <t>{'differential scanning calorimetry'}</t>
+  </si>
+  <si>
+    <t>{'nuclear magnetic resonance spectroscopy'}</t>
+  </si>
+  <si>
+    <t>{'reactant'}</t>
+  </si>
+  <si>
+    <t>{'evaluation'}</t>
+  </si>
+  <si>
+    <t>{'selectivity'}</t>
+  </si>
+  <si>
+    <t>{'gas chromatography'}</t>
+  </si>
+  <si>
+    <t>{'mass spectrometry'}</t>
+  </si>
+  <si>
+    <t>{'liquid chromatography'}</t>
+  </si>
+  <si>
+    <t>{'flame ionization detector'}</t>
+  </si>
+  <si>
+    <t>{'thermal conductivity detector'}</t>
+  </si>
+  <si>
+    <t>{'mass flow controller'}</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0001348</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0002120</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0000047</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0002124</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/process#AFP_0000326</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/role#AFRL_0000231</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/result#AFR_0001836</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000228</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0000310</t>
@@ -73,70 +103,58 @@
     <t>http://purl.allotrope.org/ontologies/process#AFP_0001427</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/ontologies/process#AFP_0002124</t>
-  </si>
-  <si>
     <t>http://purl.allotrope.org/ontologies/process#AFP_0000225</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/ontologies/process#AFP_0000326</t>
-  </si>
-  <si>
-    <t>http://purl.allotrope.org/ontologies/process#AFP_0000047</t>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000209</t>
+  </si>
+  <si>
+    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000316</t>
   </si>
   <si>
     <t>http://purl.allotrope.org/ontologies/equipment#AFE_0001671</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000209</t>
-  </si>
-  <si>
-    <t>http://purl.allotrope.org/ontologies/equipment#AFE_0000316</t>
-  </si>
-  <si>
-    <t>http://purl.allotrope.org/ontologies/result#AFR_0002120</t>
-  </si>
-  <si>
-    <t>http://purl.allotrope.org/ontologies/result#AFR_0001159</t>
-  </si>
-  <si>
-    <t>http://purl.allotrope.org/ontologies/quality#AFQ_0000228</t>
-  </si>
-  <si>
-    <t>{'label': 'Gas chromatography', 'prefLabel': 'Gas chromatography'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Mass spectrometry', 'prefLabel': 'Mass spectrometry'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Differential scanning calorimetry', 'prefLabel': 'Differential scanning calorimetry'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Liquid chromatography', 'prefLabel': 'Liquid chromatography'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Nuclear magnetic resonance spectroscopy', 'prefLabel': 'Nuclear magnetic resonance spectroscopy'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Raman Spectroscopy', 'prefLabel': 'Raman Spectroscopy'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Mass flow controller', 'prefLabel': 'Mass flow controller'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Flame Ionization Detector', 'prefLabel': 'Flame Ionization Detector'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Thermal conductivity detector', 'prefLabel': 'Thermal conductivity detector'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Specific surface area', 'prefLabel': 'Specific surface area'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Wavelength', 'prefLabel': 'Wavelength'}</t>
-  </si>
-  <si>
-    <t>{'altLabel': 'Selectivity'}</t>
+    <t>{'label': 'synthesis', 'prefLabel': 'synthesis'}</t>
+  </si>
+  <si>
+    <t>{'label': 'specific surface area', 'prefLabel': 'specific surface area'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Raman spectroscopy', 'prefLabel': 'Raman spectroscopy'}</t>
+  </si>
+  <si>
+    <t>{'label': 'differential scanning calorimetry', 'prefLabel': 'differential scanning calorimetry'}</t>
+  </si>
+  <si>
+    <t>{'label': 'nuclear magnetic resonance spectroscopy', 'prefLabel': 'nuclear magnetic resonance spectroscopy'}</t>
+  </si>
+  <si>
+    <t>{'altLabel': 'reactant'}</t>
+  </si>
+  <si>
+    <t>{'altLabel': 'evaluation'}</t>
+  </si>
+  <si>
+    <t>{'altLabel': 'selectivity'}</t>
+  </si>
+  <si>
+    <t>{'label': 'gas chromatography', 'prefLabel': 'gas chromatography'}</t>
+  </si>
+  <si>
+    <t>{'label': 'mass spectrometry', 'prefLabel': 'mass spectrometry'}</t>
+  </si>
+  <si>
+    <t>{'label': 'liquid chromatography', 'prefLabel': 'liquid chromatography'}</t>
+  </si>
+  <si>
+    <t>{'label': 'flame ionization detector', 'prefLabel': 'flame ionization detector'}</t>
+  </si>
+  <si>
+    <t>{'label': 'thermal conductivity detector', 'prefLabel': 'thermal conductivity detector'}</t>
+  </si>
+  <si>
+    <t>{'label': 'mass flow controller', 'prefLabel': 'mass flow controller'}</t>
   </si>
 </sst>
 </file>
@@ -507,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -555,10 +573,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -572,10 +590,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -589,10 +607,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -606,10 +624,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -623,10 +641,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -640,10 +658,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -657,10 +675,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -674,10 +692,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -691,10 +709,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -708,10 +726,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -725,26 +743,62 @@
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="AFP_0000310"/>
-    <hyperlink ref="D3" r:id="rId2" location="AFP_0001427"/>
-    <hyperlink ref="D4" r:id="rId3" location="AFP_0002124"/>
-    <hyperlink ref="D5" r:id="rId4" location="AFP_0000225"/>
+    <hyperlink ref="D2" r:id="rId1" location="AFP_0001348"/>
+    <hyperlink ref="D3" r:id="rId2" location="AFR_0002120"/>
+    <hyperlink ref="D4" r:id="rId3" location="AFP_0000047"/>
+    <hyperlink ref="D5" r:id="rId4" location="AFP_0002124"/>
     <hyperlink ref="D6" r:id="rId5" location="AFP_0000326"/>
-    <hyperlink ref="D7" r:id="rId6" location="AFP_0000047"/>
-    <hyperlink ref="D8" r:id="rId7" location="AFE_0001671"/>
-    <hyperlink ref="D9" r:id="rId8" location="AFE_0000209"/>
-    <hyperlink ref="D10" r:id="rId9" location="AFE_0000316"/>
-    <hyperlink ref="D11" r:id="rId10" location="AFR_0002120"/>
-    <hyperlink ref="D12" r:id="rId11" location="AFR_0001159"/>
-    <hyperlink ref="D13" r:id="rId12" location="AFQ_0000228"/>
+    <hyperlink ref="D7" r:id="rId6" location="AFRL_0000231"/>
+    <hyperlink ref="D8" r:id="rId7" location="AFR_0001836"/>
+    <hyperlink ref="D9" r:id="rId8" location="AFQ_0000228"/>
+    <hyperlink ref="D10" r:id="rId9" location="AFP_0000310"/>
+    <hyperlink ref="D11" r:id="rId10" location="AFP_0001427"/>
+    <hyperlink ref="D12" r:id="rId11" location="AFP_0000225"/>
+    <hyperlink ref="D13" r:id="rId12" location="AFE_0000209"/>
+    <hyperlink ref="D14" r:id="rId13" location="AFE_0000316"/>
+    <hyperlink ref="D15" r:id="rId14" location="AFE_0001671"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mapping/input_list_AFO.xlsx
+++ b/mapping/input_list_AFO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>input_list_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>AFO_DESC</t>
   </si>
   <si>
+    <t>AFO_DEF</t>
+  </si>
+  <si>
     <t>no IRI</t>
   </si>
   <si>
@@ -155,6 +158,48 @@
   </si>
   <si>
     <t>{'label': 'mass flow controller', 'prefLabel': 'mass flow controller'}</t>
+  </si>
+  <si>
+    <t>['Synthesis is a planned material process that combines, changes or converts material to produce a new material. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['When the area of the interface between two phases is proportional to the mass of one of the phases (e.g. for a solid adsorbent, for an emulsion or for an aerosol), the specific surface area (a, s or preferably as) is defined as the surface area divided by the mass of the relevant phase. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['Any type of vibrational spectroscopy where the Raman scattering of monochromatic light, usually from a laser in the visible, near infrared, or near ultraviolet range by a sample is detected. [CHMO]']</t>
+  </si>
+  <si>
+    <t>['Differential scanning calorimetry is a thermal analysis method in which the difference in energy inputs into a substance and a reference material is measured as a function of temperature whilst the substance and reference material are subjected to a controlled temperature program. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['A type of spectroscopy where the energy states of spin-active nuclei placed in a static magnetic field are interrogated by inducing transitions between the states via radio frequency irradiation. [CHMO]']</t>
+  </si>
+  <si>
+    <t>['Reactant role is a role of a chemical entity that is present at the start of a reaction. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['An assessment is a proposition about the judgment on a situation after considering the information known about it. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['Reaction selectivity is a reaction composition that is expressed as the number of moles of desired product per the number of moles of undesired product. [Wikipedia]']</t>
+  </si>
+  <si>
+    <t>['Column chromatography where the mobile phase is a gas. [CHMO]']</t>
+  </si>
+  <si>
+    <t>['Mass spectrometry is a spectrometry that studies matter through the formation of gas-phase ions that are characterized using mass spectrometers by their mass, charge, structure, and/or physico-chemical properties. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['Column chromatography where the mobile phase is a liquid. [CHMO]']</t>
+  </si>
+  <si>
+    <t>['A flame ionization detector is a measurement component that measures an analyte in a gas stream through the measurement of ions created via flame ionization. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['A thermal conductivity detector is a measurement component that measures changes in the thermal conductivity of the column effluent and compares it to a reference flow of carrier gas. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>['A mass flow controller is a device that determines the mixture of different materials. [Allotrope]']</t>
   </si>
 </sst>
 </file>
@@ -525,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,243 +589,288 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
